--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T18:33:54+00:00</t>
+    <t>2024-08-07T20:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T17:33:11+00:00</t>
+    <t>2024-08-13T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/patient-gas-followup-vs</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/patient-gas-followup</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -774,7 +774,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/patient-gas-followup</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-score-answers</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -774,7 +774,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.6015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-attainment-scaling</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-attainment-scaling</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -380,7 +380,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-score-answers</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/gas-score-answers</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -774,7 +774,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Goal Attainment Scaling</t>
+    <t>Goal Attainment Scaling Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-attainment-scaling.xlsx
+++ b/StructureDefinition-pco-goal-attainment-scaling.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
